--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1151749.961719214</v>
+        <v>1145662.720413163</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969143</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10872179.27790736</v>
+        <v>11128612.249591</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.49088380154248</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>39.47777785871033</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>142.6051158373067</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764958</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>385.3022315023607</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>182.9377227717321</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>142.8412861002819</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.748135055916428</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.81275980261485</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>54.34809064563689</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175848281</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>34.0792488379572</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>105.4771979831548</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>105.0076120744424</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>20.92847288552895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>151.6927290681317</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>76.75184291340824</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>243.1373908222626</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>243.4759147696092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>61.66004604095091</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548608</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>130.4114987159129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>151.8518831495024</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.34574348918484</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2361.386702945269</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="D2" t="n">
         <v>1634.158487398107</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4372,10 +4372,10 @@
         <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>2437.640120926626</v>
+        <v>2064.174362665546</v>
       </c>
       <c r="Y2" t="n">
-        <v>2437.640120926626</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>977.1346862331058</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>808.1985033051989</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>658.0818638928631</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>510.16877031047</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>363.2788228125596</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>195.2923581208382</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1158.783151063345</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1158.783151063345</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1990.953909778728</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2377.55374984285</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2377.55374984285</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2377.55374984285</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.55374984285</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y5" t="n">
-        <v>2377.55374984285</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,13 +4634,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,25 +4649,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>809.3867773625714</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>640.4505944346645</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>490.3339550223287</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>342.4208614399356</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>195.5309139420253</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V7" t="n">
-        <v>1279.178225384193</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="W7" t="n">
-        <v>1279.178225384193</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="X7" t="n">
-        <v>1279.178225384193</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>991.0352421928111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2102.480899540951</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1733.51838260054</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1375.252683993789</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>989.4644313955448</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>578.4785266059373</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>163.4060764509338</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866153</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.080739605073</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>2489.080739605073</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>241.892812669028</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>72.95662974112111</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062117</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y10" t="n">
-        <v>774.7644039315074</v>
+        <v>423.5412774992677</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2841.849394875186</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2451.710062899374</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>752.7622949738575</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>583.8261120459506</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1672.610059882605</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1383.192889845645</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1155.203338947627</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.4107598040972</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1559.116588708439</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1190.154071768027</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1190.154071768027</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>3062.090174279567</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3062.090174279567</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3062.090174279567</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2709.321519009452</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2335.855760748373</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1945.716428772561</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>752.7622949738579</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>752.7622949738579</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>752.7622949738579</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>604.8492013914648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>457.9592538935544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>290.2564172682734</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>144.0392304861311</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1672.610059882606</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1383.192889845645</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1155.203338947628</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.4107598040977</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756267</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1052.829365488568</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>883.8931825606608</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>733.776543148325</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>585.8634495659319</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>438.9735020680215</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,7 +5691,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235166</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.477830318807</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741618</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159225</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.9783180535</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4507.9783180535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>4218.903091397698</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953648</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953648</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.97827305563</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.1856939121</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310856</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6718,16 +6718,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1433.701365648819</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7393,67 +7393,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>294.8344935184726</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601777</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282438</v>
       </c>
       <c r="M6" t="n">
-        <v>255.5240487471572</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>277.2566436803258</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23311,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>43.60786094376996</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>52.2252410714884</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>19.60057749642985</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>45.3794168272091</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>9.000252501565427</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>8.661728554218797</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>84.77391660561827</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>86.99395161137537</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.73277020259238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.4862366927525</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>809882.3980918364</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>809882.3980918363</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.47014593</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165588</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,28 +26334,28 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598204</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>48293.97000819083</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545141</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281079</v>
+        <v>88524.23512810782</v>
       </c>
       <c r="E4" t="n">
-        <v>9160.459137079168</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9160.459137079168</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872316.8120359039</v>
+        <v>-872316.8120359035</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.9715400157</v>
+        <v>242434.9715400159</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.7015421246</v>
+        <v>83013.70154212386</v>
       </c>
       <c r="E6" t="n">
-        <v>308679.8641180863</v>
+        <v>27889.72357937799</v>
       </c>
       <c r="F6" t="n">
-        <v>308679.8641180862</v>
+        <v>353302.1853867331</v>
       </c>
       <c r="G6" t="n">
-        <v>43806.5311812695</v>
+        <v>353302.185386733</v>
       </c>
       <c r="H6" t="n">
-        <v>353649.5646410901</v>
+        <v>353302.1853867331</v>
       </c>
       <c r="I6" t="n">
-        <v>353649.5646410902</v>
+        <v>353302.185386733</v>
       </c>
       <c r="J6" t="n">
-        <v>186044.3868311074</v>
+        <v>185697.0075767505</v>
       </c>
       <c r="K6" t="n">
-        <v>353649.5646410901</v>
+        <v>353302.185386733</v>
       </c>
       <c r="L6" t="n">
-        <v>305355.5946328993</v>
+        <v>305008.2153785421</v>
       </c>
       <c r="M6" t="n">
-        <v>353649.56464109</v>
+        <v>268247.1574512214</v>
       </c>
       <c r="N6" t="n">
-        <v>353649.56464109</v>
+        <v>353302.185386733</v>
       </c>
       <c r="O6" t="n">
-        <v>271513.7340456385</v>
+        <v>353302.185386733</v>
       </c>
       <c r="P6" t="n">
-        <v>353649.5646410899</v>
+        <v>353302.1853867332</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757593</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.306832697356</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022542</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973562</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2429578619381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>315.2052637619726</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.646393317822145</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.4085303613876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>21.57381423935072</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>68.10752735672995</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>23.46531394452228</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,16 +27833,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.8365182961784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.9210818608657</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>240.2596737416836</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>142.2354048423641</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.5054045141376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,34 +31278,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987494</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,31 +32317,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157699</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>560.1612034965806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>533.6019216797995</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>592.5148541563228</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>615.5326193530516</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>622.4553810291978</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127279</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937516</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>418.0271695745623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>395.0475418999253</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1145662.720413163</v>
+        <v>1148817.639755385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11128612.249591</v>
+        <v>10872179.27790736</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>39.47777785871033</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>275.7087445630202</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>90.99395968649075</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.6051158373067</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>385.3022315023607</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>63.47200681233973</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>142.8412861002819</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>242.9097934416328</v>
       </c>
       <c r="H8" t="n">
-        <v>54.34809064563689</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>6.380068175848281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1375,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>46.0205556870235</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.92847288552895</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>231.0043542848926</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>83.41943806107204</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.26046424059182</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>176.1811323375803</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1447214650597</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373732</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>41.74133133758716</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>25.52471385612641</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>58.24570521548608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>82.25298866282627</v>
       </c>
       <c r="H40" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>174.9868265178721</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.035030689734</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C2" t="n">
-        <v>1674.035030689734</v>
+        <v>1859.931962592038</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1115.878011387044</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1674.035030689734</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>977.1346862331058</v>
+        <v>462.2126995006606</v>
       </c>
       <c r="C4" t="n">
-        <v>808.1985033051989</v>
+        <v>293.2765165727537</v>
       </c>
       <c r="D4" t="n">
-        <v>658.0818638928631</v>
+        <v>143.159877160418</v>
       </c>
       <c r="E4" t="n">
-        <v>510.16877031047</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>363.2788228125596</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>195.2923581208382</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269232</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063345</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>1158.783151063345</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X4" t="n">
-        <v>1158.783151063345</v>
+        <v>864.6537434744305</v>
       </c>
       <c r="Y4" t="n">
-        <v>1158.783151063345</v>
+        <v>643.8611643309004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1291.481876182945</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C5" t="n">
-        <v>922.5193592425337</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>922.5193592425337</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>922.5193592425337</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182945</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.481876182945</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1291.481876182945</v>
+        <v>2020.758327462229</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>809.3867773625714</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C7" t="n">
-        <v>640.4505944346645</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D7" t="n">
-        <v>490.3339550223287</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E7" t="n">
-        <v>342.4208614399356</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>195.5309139420253</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
         <v>51.24678656800311</v>
@@ -4725,16 +4725,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234359</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234359</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.827821336341</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y7" t="n">
-        <v>991.0352421928111</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2102.480899540951</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C8" t="n">
-        <v>1733.51838260054</v>
+        <v>1402.455495256967</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.252683993789</v>
+        <v>1044.189796650216</v>
       </c>
       <c r="E8" t="n">
-        <v>989.4644313955448</v>
+        <v>658.401544051972</v>
       </c>
       <c r="F8" t="n">
-        <v>578.4785266059373</v>
+        <v>651.4560433027685</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4060764509338</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136267</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866153</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605073</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2489.080739605073</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,40 +4889,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.892812669028</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>72.95662974112111</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218345</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218345</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408152</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427979</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992677</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1236.639481552899</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597624</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474266</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>440.6904267128338</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>590.8070661251695</v>
       </c>
     </row>
     <row r="17">
@@ -5542,7 +5542,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1052.829365488568</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>883.8931825606608</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>733.776543148325</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>585.8634495659319</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>438.9735020680215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5706,19 +5706,19 @@
         <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603202</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397315</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360355</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462337</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.477830318807</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5749,52 +5749,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>266.4891497944948</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>119.5992022965844</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6457,37 +6457,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>547.5889719879183</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>400.6990244900079</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,10 +7408,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0043242297712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
-        <v>319.4183821282438</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23263,10 +23263,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>308.6624859336595</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>55.5186440516984</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>286.311662617397</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.17349840597736</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.3794168272091</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>139.9994244361424</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.27114962944258</v>
       </c>
       <c r="H40" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>956936.4701459297</v>
+        <v>809882.3980918361</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>956936.4701459298</v>
+        <v>809882.3980918363</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>956936.4701459298</v>
+        <v>956936.4701459297</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>956936.47014593</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956936.4701459297</v>
+        <v>956936.4701459298</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165588</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
@@ -26337,7 +26337,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
@@ -26346,16 +26346,16 @@
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>48293.97000819063</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545122</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810782</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
+        <v>9160.459137079168</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9160.459137079168</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26472,16 +26472,16 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-872316.8120359035</v>
       </c>
       <c r="C6" t="n">
-        <v>242434.9715400159</v>
+        <v>242434.9715400156</v>
       </c>
       <c r="D6" t="n">
-        <v>83013.70154212386</v>
+        <v>83013.70154212441</v>
       </c>
       <c r="E6" t="n">
-        <v>27889.72357937799</v>
+        <v>308332.2451882802</v>
       </c>
       <c r="F6" t="n">
-        <v>353302.1853867331</v>
+        <v>308332.2451882802</v>
       </c>
       <c r="G6" t="n">
-        <v>353302.185386733</v>
+        <v>43771.79325583419</v>
       </c>
       <c r="H6" t="n">
-        <v>353302.1853867331</v>
+        <v>353614.8267156542</v>
       </c>
       <c r="I6" t="n">
-        <v>353302.185386733</v>
+        <v>353614.8267156542</v>
       </c>
       <c r="J6" t="n">
-        <v>185697.0075767505</v>
+        <v>186009.6489056717</v>
       </c>
       <c r="K6" t="n">
-        <v>353302.185386733</v>
+        <v>353614.8267156543</v>
       </c>
       <c r="L6" t="n">
-        <v>305008.2153785421</v>
+        <v>305320.8567074636</v>
       </c>
       <c r="M6" t="n">
-        <v>268247.1574512214</v>
+        <v>353614.8267156544</v>
       </c>
       <c r="N6" t="n">
-        <v>353302.185386733</v>
+        <v>353614.8267156541</v>
       </c>
       <c r="O6" t="n">
-        <v>353302.185386733</v>
+        <v>271478.9961202031</v>
       </c>
       <c r="P6" t="n">
-        <v>353302.1853867332</v>
+        <v>353614.8267156542</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1089.776700593298</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1367.975500341674</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,28 +26795,28 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26962,20 +26962,20 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.273736754432321e-13</v>
+      </c>
+      <c r="G3" t="n">
         <v>278.1987997483754</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27017,16 +27017,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27263,16 +27263,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>315.2052637619726</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>131.1673011786912</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.44000296007842</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>4.646393317822145</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,10 +27590,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>21.57381423935072</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>322.7659318437139</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>23.46531394452228</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>168.0119322118206</v>
       </c>
       <c r="H8" t="n">
-        <v>240.2596737416836</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>142.2354048423641</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>490.507583235568</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34368,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34789,19 +34789,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530516</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
-        <v>617.098742766094</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>351.9532034556938</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
